--- a/biology/Botanique/Jardin_médiéval_du_musée_de_Cluny/Jardin_médiéval_du_musée_de_Cluny.xlsx
+++ b/biology/Botanique/Jardin_médiéval_du_musée_de_Cluny/Jardin_médiéval_du_musée_de_Cluny.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_m%C3%A9di%C3%A9val_du_mus%C3%A9e_de_Cluny</t>
+          <t>Jardin_médiéval_du_musée_de_Cluny</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin médiéval du musée de Cluny est un espace vert du 5e arrondissement de Paris.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_m%C3%A9di%C3%A9val_du_mus%C3%A9e_de_Cluny</t>
+          <t>Jardin_médiéval_du_musée_de_Cluny</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin est accessible par le boulevard Saint-Germain (angle boulevard Saint-Michel, boulevard Saint-Germain, angle rue Du Sommerard) et par le 24, rue Du Sommerard.
 Il est constitué de plusieurs espaces :
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_m%C3%A9di%C3%A9val_du_mus%C3%A9e_de_Cluny</t>
+          <t>Jardin_médiéval_du_musée_de_Cluny</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,9 +564,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jusqu'au milieu du XIXe siècle, l'ancien hôtel de Cluny et les vestiges des thermes de Cluny étaient compris dans un îlot urbain dense délimité à l'ouest par la rue de la Harpe, au nord par la rue du Foin, à l'est par la rue Saint-Jacques et au sud par la rue des Mathurins (actuelle rue Du Sommerard)[1]. Dans le cadre des transformations de Paris sous le Second Empire, le percement du boulevard Saint-Michel et du boulevard Saint-Germain entraine la disparition de l'ancienne rue du Foin (réunie à la rue des Noyers en 1851) et l'élargissement de la rue de la Harpe (absorbée par le boulevard Saint-Michel) et de la rue Saint-Jacques[2],[3]. Les thermes et l'hôtel se trouvent ainsi dégagés et un jardin public est aménagé.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jusqu'au milieu du XIXe siècle, l'ancien hôtel de Cluny et les vestiges des thermes de Cluny étaient compris dans un îlot urbain dense délimité à l'ouest par la rue de la Harpe, au nord par la rue du Foin, à l'est par la rue Saint-Jacques et au sud par la rue des Mathurins (actuelle rue Du Sommerard). Dans le cadre des transformations de Paris sous le Second Empire, le percement du boulevard Saint-Michel et du boulevard Saint-Germain entraine la disparition de l'ancienne rue du Foin (réunie à la rue des Noyers en 1851) et l'élargissement de la rue de la Harpe (absorbée par le boulevard Saint-Michel) et de la rue Saint-Jacques,. Les thermes et l'hôtel se trouvent ainsi dégagés et un jardin public est aménagé.
 Le jardin médiéval créé en 2000 est une création contemporaine d’inspiration médiévale réalisée par les paysagistes Éric Ossart et Arnaud Maurières. Nulle trace ne subsistait du jardin urbain de l'hôtel des abbés de Cluny au XVe siècle, bien que son emprise précise demeure toujours parfaitement identifiable à partir de nombreux plans et documents d'archive. En ce sens, le jardin contemporain, qui place son axe perpendiculaire à celui du corps de logis, exprime l'exact contraire du parti médiéval, qui avait un petit jardin, dont l'axe était parallèle au corps de logis.
 Un réaménagement complet des abords de l'hôtel de Cluny s'est opéré afin d'ouvrir le musée et les collections sur la ville, sur des jardins. Avec un accès à des espaces jusqu'alors réservés, la surface des jardins atteint 5 000 m2 répartis de la manière suivante : 
 square de Cluny (État) : 3 175 m2 ;
